--- a/data/result/Growth.xlsx
+++ b/data/result/Growth.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2857142857142857</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -489,16 +489,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D3" t="n">
-        <v>1.714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
